--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf2</t>
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N2">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q2">
-        <v>29.73155126337923</v>
+        <v>36.45515711722179</v>
       </c>
       <c r="R2">
-        <v>267.583961370413</v>
+        <v>328.096414054996</v>
       </c>
       <c r="S2">
-        <v>0.01466903478560079</v>
+        <v>0.01447156686653591</v>
       </c>
       <c r="T2">
-        <v>0.01466903478560079</v>
+        <v>0.01447156686653591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
         <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q3">
-        <v>32.37212815573733</v>
+        <v>38.79175198691468</v>
       </c>
       <c r="R3">
-        <v>291.349153401636</v>
+        <v>349.125767882232</v>
       </c>
       <c r="S3">
-        <v>0.01597184989756451</v>
+        <v>0.01539912256978074</v>
       </c>
       <c r="T3">
-        <v>0.01597184989756451</v>
+        <v>0.01539912256978074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N4">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q4">
-        <v>61.62576961626623</v>
+        <v>101.7910216311342</v>
       </c>
       <c r="R4">
-        <v>554.631926546396</v>
+        <v>916.1191946802081</v>
       </c>
       <c r="S4">
-        <v>0.03040509222617951</v>
+        <v>0.04040787895142733</v>
       </c>
       <c r="T4">
-        <v>0.03040509222617951</v>
+        <v>0.04040787895142733</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N5">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q5">
-        <v>3.055747074682334</v>
+        <v>3.678952792867778</v>
       </c>
       <c r="R5">
-        <v>27.501723672141</v>
+        <v>33.11057513581</v>
       </c>
       <c r="S5">
-        <v>0.001507652921888553</v>
+        <v>0.001460430170952792</v>
       </c>
       <c r="T5">
-        <v>0.001507652921888553</v>
+        <v>0.001460430170952792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H6">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I6">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J6">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N6">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O6">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P6">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q6">
-        <v>62.25166817276622</v>
+        <v>82.30455240487667</v>
       </c>
       <c r="R6">
-        <v>560.2650135548961</v>
+        <v>740.74097164389</v>
       </c>
       <c r="S6">
-        <v>0.0307138997827117</v>
+        <v>0.03267235496249735</v>
       </c>
       <c r="T6">
-        <v>0.0307138997827117</v>
+        <v>0.03267235496249735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N7">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q7">
-        <v>247.9125460653401</v>
+        <v>253.67155262644</v>
       </c>
       <c r="R7">
-        <v>2231.21291458806</v>
+        <v>2283.04397363796</v>
       </c>
       <c r="S7">
-        <v>0.1223157759177749</v>
+        <v>0.1006997397972338</v>
       </c>
       <c r="T7">
-        <v>0.1223157759177749</v>
+        <v>0.1006997397972338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
         <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q8">
         <v>269.93064174648</v>
@@ -948,10 +948,10 @@
         <v>2429.37577571832</v>
       </c>
       <c r="S8">
-        <v>0.1331791247083626</v>
+        <v>0.1071540939681138</v>
       </c>
       <c r="T8">
-        <v>0.1331791247083626</v>
+        <v>0.1071540939681138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N9">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q9">
-        <v>513.8582011232801</v>
+        <v>708.3081940251201</v>
       </c>
       <c r="R9">
-        <v>4624.723810109521</v>
+        <v>6374.773746226081</v>
       </c>
       <c r="S9">
-        <v>0.2535287768999817</v>
+        <v>0.281176387719022</v>
       </c>
       <c r="T9">
-        <v>0.2535287768999817</v>
+        <v>0.281176387719022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N10">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q10">
-        <v>25.47993647238001</v>
+        <v>25.59982567090001</v>
       </c>
       <c r="R10">
-        <v>229.31942825142</v>
+        <v>230.3984310381001</v>
       </c>
       <c r="S10">
-        <v>0.01257136135068113</v>
+        <v>0.01016233691647096</v>
       </c>
       <c r="T10">
-        <v>0.01257136135068113</v>
+        <v>0.01016233691647096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N11">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O11">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P11">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q11">
-        <v>519.0771721532801</v>
+        <v>572.7124842621</v>
       </c>
       <c r="R11">
-        <v>4671.694549379521</v>
+        <v>5154.412358358901</v>
       </c>
       <c r="S11">
-        <v>0.2561037272248377</v>
+        <v>0.2273490958946799</v>
       </c>
       <c r="T11">
-        <v>0.2561037272248377</v>
+        <v>0.2273490958946799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N12">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O12">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P12">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q12">
-        <v>9.972302867799002</v>
+        <v>14.82803685513556</v>
       </c>
       <c r="R12">
-        <v>89.750725810191</v>
+        <v>133.45233169622</v>
       </c>
       <c r="S12">
-        <v>0.004920162300460594</v>
+        <v>0.005886270800001051</v>
       </c>
       <c r="T12">
-        <v>0.004920162300460594</v>
+        <v>0.005886270800001051</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H13">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I13">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J13">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N13">
         <v>109.157268</v>
       </c>
       <c r="O13">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P13">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q13">
-        <v>10.857982605228</v>
+        <v>15.77844051769334</v>
       </c>
       <c r="R13">
-        <v>97.721843447052</v>
+        <v>142.00596465924</v>
       </c>
       <c r="S13">
-        <v>0.005357141412722732</v>
+        <v>0.006263551581117424</v>
       </c>
       <c r="T13">
-        <v>0.005357141412722734</v>
+        <v>0.006263551581117423</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H14">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I14">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J14">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N14">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O14">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P14">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q14">
-        <v>20.669989050708</v>
+        <v>41.40322356628445</v>
       </c>
       <c r="R14">
-        <v>186.029901456372</v>
+        <v>372.6290120965601</v>
       </c>
       <c r="S14">
-        <v>0.0101982162221145</v>
+        <v>0.0164357958025798</v>
       </c>
       <c r="T14">
-        <v>0.01019821622211451</v>
+        <v>0.0164357958025798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H15">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I15">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J15">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N15">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O15">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P15">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q15">
-        <v>1.024932572343</v>
+        <v>1.496404128105556</v>
       </c>
       <c r="R15">
-        <v>9.224393151087002</v>
+        <v>13.46763715295</v>
       </c>
       <c r="S15">
-        <v>0.0005056840601221268</v>
+        <v>0.0005940260339465039</v>
       </c>
       <c r="T15">
-        <v>0.000505684060122127</v>
+        <v>0.0005940260339465039</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H16">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I16">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J16">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N16">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O16">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P16">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q16">
-        <v>20.879922596208</v>
+        <v>33.47715475428333</v>
       </c>
       <c r="R16">
-        <v>187.919303365872</v>
+        <v>301.29439278855</v>
       </c>
       <c r="S16">
-        <v>0.01030179381395705</v>
+        <v>0.01328939227912736</v>
       </c>
       <c r="T16">
-        <v>0.01030179381395705</v>
+        <v>0.01328939227912736</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H17">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N17">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O17">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P17">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q17">
-        <v>31.16068531700067</v>
+        <v>32.52831983213</v>
       </c>
       <c r="R17">
-        <v>280.446167853006</v>
+        <v>292.75487848917</v>
       </c>
       <c r="S17">
-        <v>0.01537414488766537</v>
+        <v>0.01291273423930342</v>
       </c>
       <c r="T17">
-        <v>0.01537414488766537</v>
+        <v>0.01291273423930342</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H18">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N18">
         <v>109.157268</v>
       </c>
       <c r="O18">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P18">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q18">
-        <v>33.928189268248</v>
+        <v>34.61322389646</v>
       </c>
       <c r="R18">
-        <v>305.353703414232</v>
+        <v>311.51901506814</v>
       </c>
       <c r="S18">
-        <v>0.01673958362210968</v>
+        <v>0.0137403764979898</v>
       </c>
       <c r="T18">
-        <v>0.01673958362210968</v>
+        <v>0.01374037649798979</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H19">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N19">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O19">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P19">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q19">
-        <v>64.58799264859468</v>
+        <v>90.82640617924001</v>
       </c>
       <c r="R19">
-        <v>581.291933837352</v>
+        <v>817.4376556131601</v>
       </c>
       <c r="S19">
-        <v>0.03186660199803778</v>
+        <v>0.03605526664015079</v>
       </c>
       <c r="T19">
-        <v>0.03186660199803778</v>
+        <v>0.03605526664015079</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H20">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N20">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O20">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P20">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q20">
-        <v>3.202630503838</v>
+        <v>3.282667324925</v>
       </c>
       <c r="R20">
-        <v>28.823674534542</v>
+        <v>29.54400592432501</v>
       </c>
       <c r="S20">
-        <v>0.001580122673386743</v>
+        <v>0.00130311712936776</v>
       </c>
       <c r="T20">
-        <v>0.001580122673386743</v>
+        <v>0.00130311712936776</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H21">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N21">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O21">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P21">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q21">
-        <v>65.24397685159467</v>
+        <v>73.438959422325</v>
       </c>
       <c r="R21">
-        <v>587.195791664352</v>
+        <v>660.9506348009251</v>
       </c>
       <c r="S21">
-        <v>0.03219025329384029</v>
+        <v>0.02915298947887203</v>
       </c>
       <c r="T21">
-        <v>0.03219025329384029</v>
+        <v>0.02915298947887203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.023536</v>
+      </c>
+      <c r="I22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>34.19408466666667</v>
+      </c>
+      <c r="N22">
+        <v>102.582254</v>
+      </c>
+      <c r="O22">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="P22">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="Q22">
+        <v>11.66629221446045</v>
+      </c>
+      <c r="R22">
+        <v>104.996629930144</v>
+      </c>
+      <c r="S22">
+        <v>0.00463115622635336</v>
+      </c>
+      <c r="T22">
+        <v>0.00463115622635336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.023536</v>
+      </c>
+      <c r="I23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>36.385756</v>
+      </c>
+      <c r="N23">
+        <v>109.157268</v>
+      </c>
+      <c r="O23">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="P23">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="Q23">
+        <v>12.41404371773867</v>
+      </c>
+      <c r="R23">
+        <v>111.726393459648</v>
+      </c>
+      <c r="S23">
+        <v>0.00492799038467143</v>
+      </c>
+      <c r="T23">
+        <v>0.004927990384671429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.023536</v>
+      </c>
+      <c r="I24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>95.47759733333334</v>
+      </c>
+      <c r="N24">
+        <v>286.432792</v>
+      </c>
+      <c r="O24">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="P24">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="Q24">
+        <v>32.57491935472355</v>
+      </c>
+      <c r="R24">
+        <v>293.174274192512</v>
+      </c>
+      <c r="S24">
+        <v>0.01293123280467767</v>
+      </c>
+      <c r="T24">
+        <v>0.01293123280467766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.023536</v>
+      </c>
+      <c r="I25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.450771666666667</v>
+      </c>
+      <c r="N25">
+        <v>10.352315</v>
+      </c>
+      <c r="O25">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="P25">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="Q25">
+        <v>1.177329676204445</v>
+      </c>
+      <c r="R25">
+        <v>10.59596708584</v>
+      </c>
+      <c r="S25">
+        <v>0.0004673633713431689</v>
+      </c>
+      <c r="T25">
+        <v>0.0004673633713431689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.023536</v>
+      </c>
+      <c r="I26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>77.19974499999999</v>
+      </c>
+      <c r="N26">
+        <v>231.599235</v>
+      </c>
+      <c r="O26">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="P26">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="Q26">
+        <v>26.33890606610667</v>
+      </c>
+      <c r="R26">
+        <v>237.05015459496</v>
+      </c>
+      <c r="S26">
+        <v>0.01045572891378391</v>
+      </c>
+      <c r="T26">
+        <v>0.01045572891378391</v>
       </c>
     </row>
   </sheetData>
